--- a/IoT_DB_Structure.xlsx
+++ b/IoT_DB_Structure.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main_Tables" sheetId="1" state="visible" r:id="rId3"/>
@@ -756,18 +756,12 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -867,136 +861,132 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1009,66 +999,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1251,19 +1181,19 @@
   </sheetPr>
   <dimension ref="B2:H86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="5.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="4.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="76.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="4"/>
@@ -2597,7 +2527,7 @@
   </sheetPr>
   <dimension ref="A2:F32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -2754,8 +2684,8 @@
   </sheetPr>
   <dimension ref="B2:K188"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I31" activeCellId="0" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2767,7 +2697,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="16" width="4.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="16" width="7.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="16" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="16" width="7.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="16" width="30.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="16" width="70.41"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="10" style="16" width="9.14"/>
   </cols>
@@ -2779,60 +2709,60 @@
       <c r="D2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
       <c r="I2" s="16" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="18" t="n">
+      <c r="F4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="18" t="n">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2843,60 +2773,60 @@
       <c r="D7" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="16" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="18" t="n">
+      <c r="F9" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="18" t="n">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -2907,75 +2837,75 @@
       <c r="D12" s="17" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
       <c r="I12" s="16" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="H13" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="18" t="n">
+      <c r="F14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="18" t="n">
+      <c r="E15" s="17"/>
+      <c r="F15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18" t="s">
+      <c r="E16" s="17"/>
+      <c r="F16" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="18" t="s">
+      <c r="G16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="16" t="s">
@@ -2984,95 +2914,95 @@
       <c r="D18" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
       <c r="I18" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="19" t="s">
+      <c r="G19" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="18" t="n">
+      <c r="F20" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="18" t="n">
+      <c r="F21" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="18" t="n">
+      <c r="F22" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="18" t="s">
+      <c r="E23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="J23" s="20"/>
+      <c r="H23" s="17"/>
+      <c r="J23" s="19"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="16" t="s">
@@ -3083,102 +3013,102 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="19" t="s">
+      <c r="E26" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="G26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="19" t="s">
+      <c r="H26" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="18" t="n">
+      <c r="F27" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="18" t="n">
+      <c r="F28" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="18" t="n">
+      <c r="F29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F30" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="18" t="n">
+      <c r="F30" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="18" t="n">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3189,57 +3119,57 @@
       <c r="D33" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E34" s="19" t="s">
+      <c r="E34" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="G34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H34" s="19" t="s">
+      <c r="H34" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D35" s="18" t="s">
+      <c r="D35" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E35" s="18" t="s">
+      <c r="E35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="18" t="n">
+      <c r="F35" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D36" s="18" t="s">
+      <c r="D36" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="18" t="n">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3250,76 +3180,76 @@
       <c r="D38" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="19" t="s">
+      <c r="E39" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="19" t="s">
+      <c r="F39" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G39" s="19" t="s">
+      <c r="G39" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H39" s="19" t="s">
+      <c r="H39" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="E40" s="18" t="s">
+      <c r="E40" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="18" t="n">
+      <c r="F40" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D41" s="18" t="s">
+      <c r="D41" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F41" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="18" t="n">
+      <c r="F41" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H42" s="18" t="n">
+      <c r="F42" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3330,119 +3260,119 @@
       <c r="D44" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G45" s="19" t="s">
+      <c r="G45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="19" t="s">
+      <c r="H45" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H46" s="18" t="n">
+      <c r="F46" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E47" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F47" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H47" s="18" t="n">
+      <c r="F47" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D48" s="18" t="s">
+      <c r="D48" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H48" s="18" t="n">
+      <c r="E48" s="17"/>
+      <c r="F48" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H49" s="18" t="n">
+      <c r="E49" s="17"/>
+      <c r="F49" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D50" s="18" t="s">
+      <c r="D50" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H50" s="18" t="n">
+      <c r="E50" s="17"/>
+      <c r="F50" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H51" s="18" t="n">
+      <c r="E51" s="17"/>
+      <c r="F51" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3453,74 +3383,74 @@
       <c r="D54" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D55" s="19" t="s">
+      <c r="D55" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E55" s="19" t="s">
+      <c r="E55" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F55" s="19" t="s">
+      <c r="F55" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="19" t="s">
+      <c r="G55" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H55" s="19" t="s">
+      <c r="H55" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D56" s="18" t="s">
+      <c r="D56" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="E56" s="18" t="s">
+      <c r="E56" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F56" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H56" s="18" t="n">
+      <c r="F56" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D57" s="18" t="s">
+      <c r="D57" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E57" s="18" t="s">
+      <c r="E57" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F57" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H57" s="18" t="n">
+      <c r="F57" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D58" s="18" t="s">
+      <c r="D58" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H58" s="18" t="n">
+      <c r="E58" s="17"/>
+      <c r="F58" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3531,76 +3461,76 @@
       <c r="D60" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E61" s="19" t="s">
+      <c r="E61" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F61" s="19" t="s">
+      <c r="F61" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G61" s="19" t="s">
+      <c r="G61" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="19" t="s">
+      <c r="H61" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="17" t="s">
         <v>136</v>
       </c>
-      <c r="E62" s="18" t="s">
+      <c r="E62" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F62" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="18" t="n">
+      <c r="F62" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H62" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D63" s="21" t="s">
+      <c r="D63" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E63" s="21" t="s">
+      <c r="E63" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H63" s="21" t="n">
+      <c r="F63" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H63" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D64" s="18" t="s">
+      <c r="D64" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="18" t="s">
+      <c r="E64" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H64" s="18" t="n">
+      <c r="F64" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H64" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3611,182 +3541,182 @@
       <c r="D66" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D67" s="19" t="s">
+      <c r="D67" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="F67" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G67" s="19" t="s">
+      <c r="G67" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H67" s="19" t="s">
+      <c r="H67" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D68" s="18" t="s">
+      <c r="D68" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E68" s="18" t="s">
+      <c r="E68" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H68" s="18" t="n">
+      <c r="F68" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E69" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F69" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H69" s="21" t="n">
+      <c r="F69" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="21" t="s">
+      <c r="D70" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="E70" s="21"/>
-      <c r="F70" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H70" s="21" t="n">
+      <c r="E70" s="20"/>
+      <c r="F70" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H70" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="18" t="s">
+      <c r="D71" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18" t="s">
+      <c r="E71" s="17"/>
+      <c r="F71" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="18" t="n">
+      <c r="G71" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H71" s="17" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="18" t="s">
+      <c r="D72" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18" t="s">
+      <c r="E72" s="17"/>
+      <c r="F72" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="21" t="n">
+      <c r="G72" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="18" t="s">
+      <c r="D73" s="17" t="s">
         <v>141</v>
       </c>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18" t="s">
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H73" s="21" t="n">
+      <c r="H73" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="18" t="s">
+      <c r="D74" s="17" t="s">
         <v>142</v>
       </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="21" t="n">
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D75" s="18" t="s">
+      <c r="D75" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="21" t="n">
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D76" s="18" t="s">
+      <c r="D76" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="21" t="n">
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D77" s="18" t="s">
+      <c r="D77" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="21" t="n">
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D78" s="18" t="s">
+      <c r="D78" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H78" s="18" t="n">
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H78" s="17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3797,100 +3727,100 @@
       <c r="D80" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D81" s="19" t="s">
+      <c r="D81" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="19" t="s">
+      <c r="E81" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F81" s="19" t="s">
+      <c r="F81" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G81" s="19" t="s">
+      <c r="G81" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H81" s="19" t="s">
+      <c r="H81" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E82" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H82" s="18" t="n">
+      <c r="F82" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D83" s="21" t="s">
+      <c r="D83" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H83" s="21" t="n">
+      <c r="F83" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="18" t="s">
+      <c r="D84" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18" t="s">
+      <c r="E84" s="17"/>
+      <c r="F84" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G84" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="18"/>
+      <c r="G84" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="17"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D85" s="21" t="s">
+      <c r="D85" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21" t="s">
+      <c r="E85" s="20"/>
+      <c r="F85" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G85" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="21"/>
+      <c r="G85" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D86" s="18" t="s">
+      <c r="D86" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E86" s="18"/>
-      <c r="F86" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="18" t="s">
+      <c r="E86" s="17"/>
+      <c r="F86" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="H86" s="18"/>
+      <c r="H86" s="17"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="16" t="s">
@@ -3899,89 +3829,89 @@
       <c r="D88" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D89" s="19" t="s">
+      <c r="D89" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="19" t="s">
+      <c r="E89" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F89" s="19" t="s">
+      <c r="F89" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G89" s="19" t="s">
+      <c r="G89" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H89" s="19" t="s">
+      <c r="H89" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D90" s="18" t="s">
+      <c r="D90" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E90" s="18" t="s">
+      <c r="E90" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F90" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="18" t="n">
+      <c r="F90" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D91" s="21" t="s">
+      <c r="D91" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E91" s="21" t="s">
+      <c r="E91" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F91" s="21" t="s">
+      <c r="F91" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="21" t="n">
+      <c r="G91" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D92" s="21" t="s">
+      <c r="D92" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E92" s="21"/>
-      <c r="F92" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="21" t="n">
+      <c r="E92" s="20"/>
+      <c r="F92" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D93" s="18" t="s">
+      <c r="D93" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="E93" s="18"/>
-      <c r="F93" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="18" t="n">
+      <c r="E93" s="17"/>
+      <c r="F93" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="17" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3992,57 +3922,57 @@
       <c r="D95" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="18"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D96" s="19" t="s">
+      <c r="D96" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E96" s="19" t="s">
+      <c r="E96" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F96" s="19" t="s">
+      <c r="F96" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G96" s="19" t="s">
+      <c r="G96" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H96" s="19" t="s">
+      <c r="H96" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D97" s="21" t="s">
+      <c r="D97" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E97" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F97" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="18" t="n">
+      <c r="F97" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D98" s="18" t="s">
+      <c r="D98" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="18" t="n">
+      <c r="E98" s="17"/>
+      <c r="F98" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="17" t="n">
         <v>50</v>
       </c>
     </row>
@@ -4050,70 +3980,70 @@
       <c r="B100" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="19" t="s">
+      <c r="D100" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F100" s="22" t="s">
+      <c r="F100" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G100" s="22" t="s">
+      <c r="G100" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="22" t="s">
+      <c r="H100" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="23" t="s">
+      <c r="D101" s="22" t="s">
         <v>158</v>
       </c>
-      <c r="E101" s="24" t="s">
+      <c r="E101" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F101" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="24" t="n">
+      <c r="F101" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D102" s="23" t="s">
+      <c r="D102" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E102" s="24" t="s">
+      <c r="E102" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F102" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="24" t="n">
+      <c r="F102" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D103" s="23" t="s">
+      <c r="D103" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E103" s="24" t="s">
+      <c r="E103" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F103" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="24" t="n">
+      <c r="F103" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="23" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4121,53 +4051,53 @@
       <c r="B105" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="D105" s="19" t="s">
+      <c r="D105" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E105" s="22" t="s">
+      <c r="E105" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F105" s="22" t="s">
+      <c r="F105" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G105" s="22" t="s">
+      <c r="G105" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H105" s="22" t="s">
+      <c r="H105" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D106" s="23" t="s">
+      <c r="D106" s="22" t="s">
         <v>126</v>
       </c>
-      <c r="E106" s="24" t="s">
+      <c r="E106" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F106" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="24" t="n">
+      <c r="F106" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D107" s="23" t="s">
+      <c r="D107" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="E107" s="24" t="s">
+      <c r="E107" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F107" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="24" t="n">
+      <c r="F107" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="23" t="n">
         <v>20</v>
       </c>
       <c r="I107" s="16" t="s">
@@ -4175,19 +4105,19 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D108" s="23" t="s">
+      <c r="D108" s="22" t="s">
         <v>123</v>
       </c>
-      <c r="E108" s="24" t="s">
+      <c r="E108" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F108" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H108" s="24" t="n">
+      <c r="F108" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H108" s="23" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4195,121 +4125,121 @@
       <c r="B110" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="19" t="s">
+      <c r="D110" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E110" s="22" t="s">
+      <c r="E110" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F110" s="22" t="s">
+      <c r="F110" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G110" s="22" t="s">
+      <c r="G110" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H110" s="22" t="s">
+      <c r="H110" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D111" s="23" t="s">
+      <c r="D111" s="22" t="s">
         <v>163</v>
       </c>
-      <c r="E111" s="24" t="s">
+      <c r="E111" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F111" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="24" t="n">
+      <c r="F111" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D112" s="23" t="s">
+      <c r="D112" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="E112" s="24" t="s">
+      <c r="E112" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F112" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="24" t="n">
+      <c r="F112" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D113" s="25" t="s">
+      <c r="D113" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="E113" s="26" t="s">
+      <c r="E113" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F113" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="26" t="n">
+      <c r="F113" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="H113" s="25" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D114" s="18" t="s">
+      <c r="D114" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E114" s="18" t="s">
+      <c r="E114" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F114" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H114" s="18" t="n">
+      <c r="F114" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H114" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D115" s="18" t="s">
+      <c r="D115" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E115" s="18" t="s">
+      <c r="E115" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F115" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H115" s="18" t="n">
+      <c r="F115" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H115" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D116" s="18" t="s">
+      <c r="D116" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E116" s="18" t="s">
+      <c r="E116" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F116" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H116" s="18" t="n">
+      <c r="F116" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H116" s="17" t="n">
         <v>20</v>
       </c>
     </row>
@@ -4317,70 +4247,70 @@
       <c r="B118" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D118" s="19" t="s">
+      <c r="D118" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E118" s="22" t="s">
+      <c r="E118" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F118" s="22" t="s">
+      <c r="F118" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G118" s="22" t="s">
+      <c r="G118" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H118" s="22" t="s">
+      <c r="H118" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D119" s="23" t="s">
+      <c r="D119" s="22" t="s">
         <v>168</v>
       </c>
-      <c r="E119" s="24" t="s">
+      <c r="E119" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F119" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H119" s="24" t="n">
+      <c r="F119" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H119" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D120" s="23" t="s">
+      <c r="D120" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E120" s="24" t="s">
+      <c r="E120" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F120" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H120" s="24" t="n">
+      <c r="F120" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H120" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D121" s="23" t="s">
+      <c r="D121" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="E121" s="24" t="s">
+      <c r="E121" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F121" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="24" t="n">
+      <c r="F121" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="23" t="n">
         <v>20</v>
       </c>
       <c r="I121" s="16" t="s">
@@ -4388,36 +4318,36 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D122" s="23" t="s">
+      <c r="D122" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="E122" s="24" t="s">
+      <c r="E122" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F122" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="24" t="s">
+      <c r="F122" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H122" s="24" t="n">
+      <c r="H122" s="23" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D123" s="23" t="s">
+      <c r="D123" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E123" s="24" t="s">
+      <c r="E123" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F123" s="24" t="s">
+      <c r="F123" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H123" s="24" t="n">
+      <c r="G123" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="23" t="n">
         <v>100</v>
       </c>
     </row>
@@ -4425,70 +4355,70 @@
       <c r="B125" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D125" s="19" t="s">
+      <c r="D125" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E125" s="22" t="s">
+      <c r="E125" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F125" s="22" t="s">
+      <c r="F125" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G125" s="22" t="s">
+      <c r="G125" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H125" s="22" t="s">
+      <c r="H125" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D126" s="23" t="s">
+      <c r="D126" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="E126" s="24" t="s">
+      <c r="E126" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F126" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H126" s="24" t="n">
+      <c r="F126" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D127" s="23" t="s">
+      <c r="D127" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="24" t="s">
+      <c r="E127" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F127" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H127" s="24" t="n">
+      <c r="F127" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H127" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D128" s="23" t="s">
+      <c r="D128" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="E128" s="24" t="s">
+      <c r="E128" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F128" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="24" t="s">
+      <c r="F128" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="H128" s="24" t="n">
+      <c r="H128" s="23" t="n">
         <v>1</v>
       </c>
       <c r="I128" s="16" t="s">
@@ -4496,202 +4426,202 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D129" s="23" t="s">
+      <c r="D129" s="22" t="s">
         <v>176</v>
       </c>
-      <c r="E129" s="24" t="s">
+      <c r="E129" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F129" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H129" s="24" t="n">
+      <c r="F129" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="23" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D130" s="23" t="s">
+      <c r="D130" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E130" s="24" t="s">
+      <c r="E130" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F130" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G130" s="24" t="s">
+      <c r="F130" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G130" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H130" s="24"/>
+      <c r="H130" s="23"/>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="D132" s="19" t="s">
+      <c r="D132" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E132" s="22" t="s">
+      <c r="E132" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="F132" s="22" t="s">
+      <c r="F132" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G132" s="22" t="s">
+      <c r="G132" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="H132" s="22" t="s">
+      <c r="H132" s="21" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D133" s="23" t="s">
+      <c r="D133" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="E133" s="24" t="s">
+      <c r="E133" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F133" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G133" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H133" s="24" t="n">
+      <c r="F133" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G133" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D134" s="23" t="s">
+      <c r="D134" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E134" s="24" t="s">
+      <c r="E134" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F134" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G134" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H134" s="24" t="n">
+      <c r="F134" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G134" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="23" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D135" s="23" t="s">
+      <c r="D135" s="22" t="s">
         <v>180</v>
       </c>
-      <c r="E135" s="24" t="s">
+      <c r="E135" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F135" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G135" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="H135" s="24" t="n">
+      <c r="F135" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H135" s="23" t="n">
         <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D136" s="23" t="s">
+      <c r="D136" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="E136" s="24" t="s">
+      <c r="E136" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F136" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G136" s="24" t="s">
+      <c r="F136" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G136" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H136" s="24"/>
+      <c r="H136" s="23"/>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="D138" s="27" t="s">
+      <c r="D138" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E138" s="28" t="s">
+      <c r="E138" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F138" s="28" t="s">
+      <c r="F138" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G138" s="28" t="s">
+      <c r="G138" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H138" s="28" t="s">
+      <c r="H138" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D139" s="18" t="s">
+      <c r="D139" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E139" s="18" t="s">
+      <c r="E139" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F139" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G139" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H139" s="18" t="n">
+      <c r="F139" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G139" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D140" s="18" t="s">
+      <c r="D140" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E140" s="18"/>
-      <c r="F140" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H140" s="18" t="n">
+      <c r="E140" s="17"/>
+      <c r="F140" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G140" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D141" s="21" t="s">
+      <c r="D141" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="E141" s="21"/>
-      <c r="F141" s="21" t="s">
+      <c r="E141" s="20"/>
+      <c r="F141" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G141" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H141" s="21" t="n">
+      <c r="G141" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H141" s="20" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D142" s="18" t="s">
+      <c r="D142" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E142" s="18"/>
-      <c r="F142" s="18" t="s">
+      <c r="E142" s="17"/>
+      <c r="F142" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G142" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H142" s="18" t="n">
+      <c r="G142" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" s="17" t="n">
         <v>50</v>
       </c>
       <c r="I142" s="16" t="s">
@@ -4699,594 +4629,594 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E143" s="24"/>
-      <c r="F143" s="24"/>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="23"/>
+      <c r="G143" s="23"/>
+      <c r="H143" s="23"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="D144" s="27" t="s">
+      <c r="D144" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E144" s="28" t="s">
+      <c r="E144" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F144" s="28" t="s">
+      <c r="F144" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G144" s="28" t="s">
+      <c r="G144" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H144" s="28" t="s">
+      <c r="H144" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D145" s="18" t="s">
+      <c r="D145" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E145" s="18" t="s">
+      <c r="E145" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F145" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G145" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H145" s="18" t="n">
+      <c r="F145" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G145" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H145" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D146" s="18" t="s">
+      <c r="D146" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="E146" s="18" t="s">
+      <c r="E146" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F146" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G146" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H146" s="18" t="n">
+      <c r="F146" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G146" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H146" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D147" s="18" t="s">
+      <c r="D147" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="E147" s="18"/>
-      <c r="F147" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G147" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H147" s="18" t="n">
+      <c r="E147" s="17"/>
+      <c r="F147" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G147" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H147" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D148" s="18" t="s">
+      <c r="D148" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="E148" s="18"/>
-      <c r="F148" s="18" t="s">
+      <c r="E148" s="17"/>
+      <c r="F148" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G148" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H148" s="18" t="n">
+      <c r="G148" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H148" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E149" s="24"/>
-      <c r="F149" s="24"/>
-      <c r="G149" s="24"/>
-      <c r="H149" s="24"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="23"/>
+      <c r="G149" s="23"/>
+      <c r="H149" s="23"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D150" s="29" t="s">
+      <c r="D150" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E150" s="30" t="s">
+      <c r="E150" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F150" s="30" t="s">
+      <c r="F150" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G150" s="30" t="s">
+      <c r="G150" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H150" s="30" t="s">
+      <c r="H150" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D151" s="18" t="s">
+      <c r="D151" s="17" t="s">
         <v>166</v>
       </c>
-      <c r="E151" s="18" t="s">
+      <c r="E151" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F151" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G151" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H151" s="18" t="n">
+      <c r="F151" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G151" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D152" s="18" t="s">
+      <c r="D152" s="17" t="s">
         <v>165</v>
       </c>
-      <c r="E152" s="18" t="s">
+      <c r="E152" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F152" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G152" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H152" s="18" t="n">
+      <c r="F152" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G152" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D153" s="18" t="s">
+      <c r="D153" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E153" s="18"/>
-      <c r="F153" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G153" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H153" s="18" t="n">
+      <c r="E153" s="17"/>
+      <c r="F153" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G153" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H153" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E154" s="18"/>
-      <c r="F154" s="18" t="s">
+      <c r="E154" s="17"/>
+      <c r="F154" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G154" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H154" s="18" t="n">
+      <c r="G154" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H154" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D155" s="18" t="s">
+      <c r="D155" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="E155" s="18"/>
-      <c r="F155" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G155" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H155" s="18" t="n">
+      <c r="E155" s="17"/>
+      <c r="F155" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G155" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H155" s="17" t="n">
         <v>10</v>
       </c>
       <c r="I155" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="J155" s="31"/>
-      <c r="K155" s="31"/>
+      <c r="J155" s="30"/>
+      <c r="K155" s="30"/>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D156" s="18" t="s">
+      <c r="D156" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E156" s="18"/>
-      <c r="F156" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G156" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H156" s="18"/>
-      <c r="J156" s="31"/>
-      <c r="K156" s="31"/>
+      <c r="E156" s="17"/>
+      <c r="F156" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G156" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H156" s="17"/>
+      <c r="J156" s="30"/>
+      <c r="K156" s="30"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="D158" s="29" t="s">
+      <c r="D158" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E158" s="30" t="s">
+      <c r="E158" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F158" s="30" t="s">
+      <c r="F158" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G158" s="30" t="s">
+      <c r="G158" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H158" s="30" t="s">
+      <c r="H158" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D159" s="18" t="s">
+      <c r="D159" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E159" s="18" t="s">
+      <c r="E159" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F159" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G159" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H159" s="18" t="n">
+      <c r="F159" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G159" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H159" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D160" s="18" t="s">
+      <c r="D160" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="E160" s="18" t="s">
+      <c r="E160" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F160" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G160" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H160" s="18" t="n">
+      <c r="F160" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G160" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H160" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D161" s="18" t="s">
+      <c r="D161" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E161" s="18"/>
-      <c r="F161" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G161" s="18" t="s">
+      <c r="E161" s="17"/>
+      <c r="F161" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G161" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="H161" s="18" t="n">
+      <c r="H161" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D162" s="18" t="s">
+      <c r="D162" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18" t="s">
+      <c r="E162" s="17"/>
+      <c r="F162" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G162" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H162" s="18" t="n">
+      <c r="G162" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H162" s="17" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D163" s="18" t="s">
+      <c r="D163" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E163" s="18"/>
-      <c r="F163" s="18" t="s">
+      <c r="E163" s="17"/>
+      <c r="F163" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G163" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H163" s="32" t="n">
+      <c r="G163" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H163" s="31" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D164" s="18" t="s">
+      <c r="D164" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18" t="s">
+      <c r="E164" s="17"/>
+      <c r="F164" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G164" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H164" s="32" t="n">
+      <c r="G164" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H164" s="31" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D165" s="18" t="s">
+      <c r="D165" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="E165" s="18"/>
-      <c r="F165" s="18" t="s">
+      <c r="E165" s="17"/>
+      <c r="F165" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G165" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H165" s="32" t="n">
+      <c r="G165" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H165" s="31" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D166" s="18" t="s">
+      <c r="D166" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="E166" s="18"/>
-      <c r="F166" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G166" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H166" s="32" t="n">
+      <c r="E166" s="17"/>
+      <c r="F166" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G166" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H166" s="31" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D167" s="18" t="s">
+      <c r="D167" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="E167" s="18"/>
-      <c r="F167" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G167" s="18" t="s">
+      <c r="E167" s="17"/>
+      <c r="F167" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G167" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="H167" s="32" t="n">
+      <c r="H167" s="31" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D168" s="18" t="s">
+      <c r="D168" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="E168" s="18"/>
-      <c r="F168" s="18" t="s">
+      <c r="E168" s="17"/>
+      <c r="F168" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G168" s="18" t="s">
+      <c r="G168" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="H168" s="32" t="n">
+      <c r="H168" s="31" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D169" s="18" t="s">
+      <c r="D169" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="E169" s="18"/>
-      <c r="F169" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G169" s="18" t="s">
+      <c r="E169" s="17"/>
+      <c r="F169" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G169" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H169" s="18"/>
+      <c r="H169" s="17"/>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="D171" s="29" t="s">
+      <c r="D171" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E171" s="30" t="s">
+      <c r="E171" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F171" s="30" t="s">
+      <c r="F171" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="G171" s="30" t="s">
+      <c r="G171" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="H171" s="30" t="s">
+      <c r="H171" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D172" s="18" t="s">
+      <c r="D172" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E172" s="18" t="s">
+      <c r="E172" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F172" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G172" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H172" s="18" t="n">
+      <c r="F172" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G172" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H172" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D173" s="21" t="s">
+      <c r="D173" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E173" s="21" t="s">
+      <c r="E173" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F173" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G173" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H173" s="21" t="n">
+      <c r="F173" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G173" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H173" s="20" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D174" s="18" t="s">
+      <c r="D174" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="E174" s="18"/>
-      <c r="F174" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G174" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H174" s="18"/>
+      <c r="E174" s="17"/>
+      <c r="F174" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G174" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="H174" s="17"/>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D175" s="18" t="s">
+      <c r="D175" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="E175" s="18"/>
-      <c r="F175" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G175" s="18" t="s">
+      <c r="E175" s="17"/>
+      <c r="F175" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G175" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="H175" s="18"/>
+      <c r="H175" s="17"/>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D176" s="18" t="s">
+      <c r="D176" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E176" s="18"/>
-      <c r="F176" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G176" s="18" t="s">
+      <c r="E176" s="17"/>
+      <c r="F176" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G176" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="H176" s="18"/>
+      <c r="H176" s="17"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D177" s="18" t="s">
+      <c r="D177" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E177" s="18"/>
-      <c r="F177" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="G177" s="18" t="s">
+      <c r="E177" s="17"/>
+      <c r="F177" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G177" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="H177" s="18"/>
+      <c r="H177" s="17"/>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D178" s="18" t="s">
+      <c r="D178" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="E178" s="18"/>
-      <c r="F178" s="18" t="s">
+      <c r="E178" s="17"/>
+      <c r="F178" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G178" s="18" t="s">
+      <c r="G178" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="H178" s="18"/>
+      <c r="H178" s="17"/>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="D180" s="19" t="s">
+      <c r="D180" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E180" s="19" t="s">
+      <c r="E180" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F180" s="19" t="s">
+      <c r="F180" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G180" s="19" t="s">
+      <c r="G180" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H180" s="19" t="s">
+      <c r="H180" s="18" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D181" s="18" t="s">
+      <c r="D181" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="E181" s="18" t="s">
+      <c r="E181" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F181" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G181" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H181" s="18" t="n">
+      <c r="F181" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G181" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H181" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D182" s="18" t="s">
+      <c r="D182" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E182" s="18" t="s">
+      <c r="E182" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F182" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G182" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H182" s="18" t="n">
+      <c r="F182" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G182" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H182" s="17" t="n">
         <v>20</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D183" s="18" t="s">
+      <c r="D183" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="E183" s="18" t="s">
+      <c r="E183" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="F183" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G183" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H183" s="18" t="n">
+      <c r="F183" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G183" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H183" s="17" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5294,19 +5224,19 @@
       <c r="B185" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="D185" s="29" t="s">
+      <c r="D185" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E185" s="29" t="s">
+      <c r="E185" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F185" s="29" t="s">
+      <c r="F185" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="G185" s="29" t="s">
+      <c r="G185" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="H185" s="29" t="s">
+      <c r="H185" s="28" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5314,17 +5244,17 @@
       <c r="B186" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D186" s="18" t="s">
+      <c r="D186" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="E186" s="18"/>
-      <c r="F186" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G186" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H186" s="18" t="n">
+      <c r="E186" s="17"/>
+      <c r="F186" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G186" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H186" s="17" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5332,19 +5262,19 @@
       <c r="B187" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D187" s="18" t="s">
+      <c r="D187" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="E187" s="18" t="s">
+      <c r="E187" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F187" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G187" s="18" t="s">
+      <c r="F187" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G187" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="H187" s="18" t="n">
+      <c r="H187" s="17" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5352,19 +5282,19 @@
       <c r="B188" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D188" s="18" t="s">
+      <c r="D188" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="E188" s="18" t="s">
+      <c r="E188" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F188" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="G188" s="18" t="s">
+      <c r="F188" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G188" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="H188" s="18" t="n">
+      <c r="H188" s="17" t="n">
         <v>20</v>
       </c>
     </row>
